--- a/biology/Botanique/Beurré_de_Ghélin/Beurré_de_Ghélin.xlsx
+++ b/biology/Botanique/Beurré_de_Ghélin/Beurré_de_Ghélin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Beurr%C3%A9_de_Gh%C3%A9lin</t>
+          <t>Beurré_de_Ghélin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Beurré de Ghélin est le nom d'une variété de poire obtenue en Belgique[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Beurré de Ghélin est le nom d'une variété de poire obtenue en Belgique.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Beurr%C3%A9_de_Gh%C3%A9lin</t>
+          <t>Beurré_de_Ghélin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette poire a été obtenue de semis par M. Fontaine de Ghélin, dans le Hainaut (Belgique), qui en a cédé la propriété à  M. A. Vershafelt, éditeur et propagateur.
 Ne pas confondre avec la poire Fontaine de Ghélin.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Beurr%C3%A9_de_Gh%C3%A9lin</t>
+          <t>Beurré_de_Ghélin</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,6 +558,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -551,7 +567,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Beurr%C3%A9_de_Gh%C3%A9lin</t>
+          <t>Beurré_de_Ghélin</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -571,49 +587,61 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Description de l'arbre
-Bois : 
+          <t>Description de l'arbre</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bois : 
 Rameaux : 
 Yeux : 
 Feuilles : 
-Description du fruit
-Forme : C'est un fruit irrégulièrement arrondi, gibbeux, légèrement contracté à la base laquelle est légèrement concave à l'insertion du pédoncule[2].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Beurré_de_Ghélin</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Beurr%C3%A9_de_Gh%C3%A9lin</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Description du fruit</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Forme : C'est un fruit irrégulièrement arrondi, gibbeux, légèrement contracté à la base laquelle est légèrement concave à l'insertion du pédoncule.
 Pédoncule : 
 Œil : peu enfoncé au sommet.
 Peau : jaune pâle mais presque recouverte de brun pâle et maculée de plus foncé.
 Chair : blanc jaunâtre, très sucrée, très juteuse, fondante et d'une saveur parfumée.
 Eau : 
-Maturité
-Du 15 au 30 novembre. Conservation jusqu'en janvier.
 </t>
         </is>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Beurr%C3%A9_de_Gh%C3%A9lin</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Beurr%C3%A9_de_Gh%C3%A9lin</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Culture</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -621,7 +649,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Beurr%C3%A9_de_Gh%C3%A9lin</t>
+          <t>Beurré_de_Ghélin</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -636,10 +664,77 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Maturité</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Du 15 au 30 novembre. Conservation jusqu'en janvier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Beurré_de_Ghélin</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Beurr%C3%A9_de_Gh%C3%A9lin</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Beurré_de_Ghélin</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Beurr%C3%A9_de_Gh%C3%A9lin</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
